--- a/data/trans_orig/P6902-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6902-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C535FCA-0EA6-42A4-B1BA-CBA7FAA4EAA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{511A2B55-A848-44CF-ADAF-05AF2826C7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EA158B76-6A90-4D2C-99E6-36531BB86801}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{47E31F96-4982-44A0-9EC6-84FB870DC15D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="435">
   <si>
     <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>27,29%</t>
+    <t>32,28%</t>
   </si>
   <si>
     <t>28,67%</t>
@@ -92,10 +92,10 @@
     <t>12,92%</t>
   </si>
   <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,7 +104,7 @@
     <t>93,42%</t>
   </si>
   <si>
-    <t>72,71%</t>
+    <t>67,72%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -119,10 +119,10 @@
     <t>87,08%</t>
   </si>
   <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,55 +134,55 @@
     <t>22,48%</t>
   </si>
   <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
   </si>
   <si>
     <t>43,94%</t>
   </si>
   <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
   </si>
   <si>
     <t>28,69%</t>
   </si>
   <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
   </si>
   <si>
     <t>77,52%</t>
   </si>
   <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
   </si>
   <si>
     <t>56,06%</t>
   </si>
   <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
   </si>
   <si>
     <t>71,31%</t>
   </si>
   <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -191,55 +191,55 @@
     <t>43,58%</t>
   </si>
   <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
   </si>
   <si>
     <t>45,47%</t>
   </si>
   <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
   </si>
   <si>
     <t>44,08%</t>
   </si>
   <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
   </si>
   <si>
     <t>56,42%</t>
   </si>
   <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
   </si>
   <si>
     <t>54,53%</t>
   </si>
   <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
   </si>
   <si>
     <t>55,92%</t>
   </si>
   <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -248,55 +248,55 @@
     <t>42,78%</t>
   </si>
   <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
   </si>
   <si>
     <t>65,85%</t>
   </si>
   <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
   </si>
   <si>
     <t>49,64%</t>
   </si>
   <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
   </si>
   <si>
     <t>57,22%</t>
   </si>
   <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
   </si>
   <si>
     <t>34,15%</t>
   </si>
   <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
   </si>
   <si>
     <t>50,36%</t>
   </si>
   <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -305,109 +305,109 @@
     <t>57,62%</t>
   </si>
   <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
   </si>
   <si>
     <t>50,96%</t>
   </si>
   <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
   </si>
   <si>
     <t>55,01%</t>
   </si>
   <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
   </si>
   <si>
     <t>42,38%</t>
   </si>
   <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
   </si>
   <si>
     <t>49,04%</t>
   </si>
   <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
   </si>
   <si>
     <t>44,99%</t>
   </si>
   <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
   </si>
   <si>
     <t>43,42%</t>
   </si>
   <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
   </si>
   <si>
     <t>51,34%</t>
   </si>
   <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
   </si>
   <si>
     <t>45,94%</t>
   </si>
   <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
   </si>
   <si>
     <t>56,58%</t>
   </si>
   <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
   </si>
   <si>
     <t>48,66%</t>
   </si>
   <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
   </si>
   <si>
     <t>54,06%</t>
   </si>
   <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -419,10 +419,10 @@
     <t>36,11%</t>
   </si>
   <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
   </si>
   <si>
     <t>56,11%</t>
@@ -434,19 +434,19 @@
     <t>41,1%</t>
   </si>
   <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
   </si>
   <si>
     <t>63,89%</t>
   </si>
   <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
   </si>
   <si>
     <t>43,89%</t>
@@ -458,34 +458,34 @@
     <t>58,9%</t>
   </si>
   <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
   </si>
   <si>
     <t>36,5%</t>
   </si>
   <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
   </si>
   <si>
     <t>53,56%</t>
   </si>
   <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
   </si>
   <si>
     <t>42,28%</t>
   </si>
   <si>
-    <t>31,17%</t>
+    <t>30,74%</t>
   </si>
   <si>
     <t>52,78%</t>
@@ -494,19 +494,19 @@
     <t>63,5%</t>
   </si>
   <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
   </si>
   <si>
     <t>46,44%</t>
   </si>
   <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
   </si>
   <si>
     <t>57,72%</t>
@@ -515,223 +515,223 @@
     <t>47,22%</t>
   </si>
   <si>
-    <t>68,83%</t>
+    <t>69,26%</t>
   </si>
   <si>
     <t>50,18%</t>
   </si>
   <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
   </si>
   <si>
     <t>57,36%</t>
   </si>
   <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
   </si>
   <si>
     <t>53,12%</t>
   </si>
   <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
   </si>
   <si>
     <t>49,82%</t>
   </si>
   <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
   </si>
   <si>
     <t>42,64%</t>
   </si>
   <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
   </si>
   <si>
     <t>46,88%</t>
   </si>
   <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
   </si>
   <si>
     <t>51,93%</t>
   </si>
   <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
   </si>
   <si>
     <t>54,67%</t>
   </si>
   <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
   </si>
   <si>
     <t>53,03%</t>
   </si>
   <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
   </si>
   <si>
     <t>48,07%</t>
   </si>
   <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
   </si>
   <si>
     <t>45,33%</t>
   </si>
   <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
   </si>
   <si>
     <t>46,97%</t>
   </si>
   <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
   </si>
   <si>
     <t>48,12%</t>
   </si>
   <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
   </si>
   <si>
     <t>61,98%</t>
   </si>
   <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
   </si>
   <si>
     <t>54,4%</t>
   </si>
   <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
   </si>
   <si>
     <t>51,88%</t>
   </si>
   <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
   </si>
   <si>
     <t>38,02%</t>
   </si>
   <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
   </si>
   <si>
     <t>45,6%</t>
   </si>
   <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
   </si>
   <si>
     <t>46,87%</t>
   </si>
   <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
   </si>
   <si>
     <t>57,54%</t>
   </si>
   <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
   </si>
   <si>
     <t>51,13%</t>
   </si>
   <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
   </si>
   <si>
     <t>53,13%</t>
   </si>
   <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
   </si>
   <si>
     <t>42,46%</t>
   </si>
   <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
   </si>
   <si>
     <t>48,87%</t>
   </si>
   <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
   </si>
   <si>
     <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2015 (Tasa respuesta: 8,05%)</t>
@@ -740,10 +740,10 @@
     <t>62,87%</t>
   </si>
   <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
   </si>
   <si>
     <t>72,34%</t>
@@ -755,19 +755,16 @@
     <t>66,97%</t>
   </si>
   <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
+    <t>87,21%</t>
   </si>
   <si>
     <t>37,13%</t>
   </si>
   <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
   </si>
   <si>
     <t>27,66%</t>
@@ -779,280 +776,259 @@
     <t>33,03%</t>
   </si>
   <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
+    <t>12,79%</t>
   </si>
   <si>
     <t>37,99%</t>
   </si>
   <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
   </si>
   <si>
     <t>38,83%</t>
   </si>
   <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
   </si>
   <si>
     <t>38,27%</t>
   </si>
   <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
   </si>
   <si>
     <t>62,01%</t>
   </si>
   <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
   </si>
   <si>
     <t>61,17%</t>
   </si>
   <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
   </si>
   <si>
     <t>61,73%</t>
   </si>
   <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
   </si>
   <si>
     <t>42,97%</t>
   </si>
   <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
   </si>
   <si>
     <t>53,25%</t>
   </si>
   <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
   </si>
   <si>
     <t>46,72%</t>
   </si>
   <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
+    <t>55,13%</t>
   </si>
   <si>
     <t>57,03%</t>
   </si>
   <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
   </si>
   <si>
     <t>46,75%</t>
   </si>
   <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
   </si>
   <si>
     <t>53,28%</t>
   </si>
   <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
+    <t>44,87%</t>
   </si>
   <si>
     <t>33,0%</t>
   </si>
   <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
   </si>
   <si>
     <t>65,51%</t>
   </si>
   <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
+    <t>76,84%</t>
   </si>
   <si>
     <t>45,05%</t>
   </si>
   <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
   </si>
   <si>
     <t>67,0%</t>
   </si>
   <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
   </si>
   <si>
     <t>34,49%</t>
   </si>
   <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
+    <t>23,16%</t>
   </si>
   <si>
     <t>54,95%</t>
   </si>
   <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
   </si>
   <si>
     <t>57,99%</t>
   </si>
   <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
   </si>
   <si>
     <t>68,65%</t>
   </si>
   <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
   </si>
   <si>
     <t>62,55%</t>
   </si>
   <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
   </si>
   <si>
     <t>42,01%</t>
   </si>
   <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
   </si>
   <si>
     <t>31,35%</t>
   </si>
   <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
   </si>
   <si>
     <t>37,45%</t>
   </si>
   <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
   </si>
   <si>
     <t>43,43%</t>
   </si>
   <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
+    <t>38,31%</t>
   </si>
   <si>
     <t>60,58%</t>
   </si>
   <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
   </si>
   <si>
     <t>49,98%</t>
   </si>
   <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
   </si>
   <si>
     <t>56,57%</t>
   </si>
   <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
+    <t>61,69%</t>
   </si>
   <si>
     <t>39,42%</t>
   </si>
   <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
   </si>
   <si>
     <t>50,02%</t>
   </si>
   <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
   </si>
   <si>
     <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2023 (Tasa respuesta: 9,29%)</t>
@@ -1061,19 +1037,19 @@
     <t>27,75%</t>
   </si>
   <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
   </si>
   <si>
     <t>47,38%</t>
   </si>
   <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
   </si>
   <si>
     <t>36,44%</t>
@@ -1082,31 +1058,31 @@
     <t>19,57%</t>
   </si>
   <si>
-    <t>56,87%</t>
+    <t>55,7%</t>
   </si>
   <si>
     <t>72,25%</t>
   </si>
   <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
   </si>
   <si>
     <t>52,62%</t>
   </si>
   <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
   </si>
   <si>
     <t>63,56%</t>
   </si>
   <si>
-    <t>43,13%</t>
+    <t>44,3%</t>
   </si>
   <si>
     <t>80,43%</t>
@@ -1115,259 +1091,259 @@
     <t>49,56%</t>
   </si>
   <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
   </si>
   <si>
     <t>63,54%</t>
   </si>
   <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
   </si>
   <si>
     <t>55,75%</t>
   </si>
   <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
   </si>
   <si>
     <t>50,44%</t>
   </si>
   <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
   </si>
   <si>
     <t>36,46%</t>
   </si>
   <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
   </si>
   <si>
     <t>44,25%</t>
   </si>
   <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
   </si>
   <si>
     <t>54,72%</t>
   </si>
   <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
   </si>
   <si>
     <t>64,21%</t>
   </si>
   <si>
-    <t>71,61%</t>
+    <t>72,76%</t>
   </si>
   <si>
     <t>59,31%</t>
   </si>
   <si>
-    <t>52,7%</t>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
   </si>
   <si>
     <t>45,28%</t>
   </si>
   <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
   </si>
   <si>
     <t>35,79%</t>
   </si>
   <si>
-    <t>28,39%</t>
+    <t>27,24%</t>
   </si>
   <si>
     <t>40,69%</t>
   </si>
   <si>
-    <t>47,3%</t>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
   </si>
   <si>
     <t>66,44%</t>
   </si>
   <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
   </si>
   <si>
     <t>63,12%</t>
   </si>
   <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
   </si>
   <si>
     <t>64,52%</t>
   </si>
   <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
   </si>
   <si>
     <t>33,56%</t>
   </si>
   <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
   </si>
   <si>
     <t>36,88%</t>
   </si>
   <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
   </si>
   <si>
     <t>35,48%</t>
   </si>
   <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
   </si>
   <si>
     <t>80,89%</t>
   </si>
   <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
   </si>
   <si>
     <t>69,41%</t>
   </si>
   <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
   </si>
   <si>
     <t>74,91%</t>
   </si>
   <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
   </si>
   <si>
     <t>19,11%</t>
   </si>
   <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
   </si>
   <si>
     <t>30,59%</t>
   </si>
   <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
   </si>
   <si>
     <t>25,09%</t>
   </si>
   <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
   </si>
   <si>
     <t>62,39%</t>
   </si>
   <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
   </si>
   <si>
     <t>63,7%</t>
   </si>
   <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
   </si>
   <si>
     <t>37,61%</t>
   </si>
   <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
   </si>
   <si>
     <t>36,3%</t>
   </si>
   <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
   </si>
 </sst>
 </file>
@@ -1779,7 +1755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B8B9261-DAAF-43B9-8DC9-BB9803AC0322}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F111055-F0D8-412E-8004-B9ED7F21FA07}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2842,7 +2818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96BBCAAA-E699-4CCC-81A0-2CF7579CFD51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BF797AD-E77E-422D-9433-8946B55A0BFD}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3905,7 +3881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BAA4884-FFB8-414B-9E88-F15EBB033ED6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4846FC88-2CEA-4B99-AA60-F48F01AC8520}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4062,10 +4038,10 @@
         <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,13 +4056,13 @@
         <v>2988</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -4095,13 +4071,13 @@
         <v>1695</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -4110,13 +4086,13 @@
         <v>4684</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>246</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>247</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,13 +4160,13 @@
         <v>17711</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4199,13 +4175,13 @@
         <v>9235</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M7" s="7">
         <v>25</v>
@@ -4214,13 +4190,13 @@
         <v>26945</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,13 +4211,13 @@
         <v>28913</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H8" s="7">
         <v>14</v>
@@ -4250,13 +4226,13 @@
         <v>14550</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -4265,13 +4241,13 @@
         <v>43464</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4315,13 @@
         <v>41677</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -4354,13 +4330,13 @@
         <v>29581</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M10" s="7">
         <v>62</v>
@@ -4369,13 +4345,13 @@
         <v>71257</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4366,13 @@
         <v>55307</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -4405,13 +4381,13 @@
         <v>25971</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="M11" s="7">
         <v>75</v>
@@ -4420,13 +4396,13 @@
         <v>81278</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,13 +4470,13 @@
         <v>36280</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
@@ -4509,13 +4485,13 @@
         <v>42418</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>75</v>
@@ -4524,13 +4500,13 @@
         <v>78698</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,13 +4521,13 @@
         <v>73655</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H14" s="7">
         <v>22</v>
@@ -4560,13 +4536,13 @@
         <v>22329</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="M14" s="7">
         <v>92</v>
@@ -4575,13 +4551,13 @@
         <v>95984</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4649,13 +4625,13 @@
         <v>51267</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="H16" s="7">
         <v>42</v>
@@ -4664,13 +4640,13 @@
         <v>45366</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="M16" s="7">
         <v>90</v>
@@ -4679,13 +4655,13 @@
         <v>96633</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4700,13 +4676,13 @@
         <v>37143</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -4715,13 +4691,13 @@
         <v>20717</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="M17" s="7">
         <v>55</v>
@@ -4730,13 +4706,13 @@
         <v>57860</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4804,13 +4780,13 @@
         <v>151995</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>322</v>
+        <v>227</v>
       </c>
       <c r="H19" s="7">
         <v>125</v>
@@ -4819,13 +4795,13 @@
         <v>131034</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="M19" s="7">
         <v>262</v>
@@ -4834,13 +4810,13 @@
         <v>283029</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4855,13 +4831,13 @@
         <v>198006</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>330</v>
+        <v>217</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H20" s="7">
         <v>82</v>
@@ -4870,13 +4846,13 @@
         <v>85264</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="M20" s="7">
         <v>267</v>
@@ -4885,13 +4861,13 @@
         <v>283270</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4968,7 +4944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB4C125-1C45-44A3-9948-55EE21F447AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3ED5F5A-7C99-4BC0-98FF-CEE2DD0D494B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4985,7 +4961,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5092,13 +5068,13 @@
         <v>3945</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -5107,13 +5083,13 @@
         <v>5350</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -5122,13 +5098,13 @@
         <v>9294</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5143,13 +5119,13 @@
         <v>10268</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -5158,13 +5134,13 @@
         <v>5941</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -5173,13 +5149,13 @@
         <v>16209</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5223,13 @@
         <v>29890</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="H7" s="7">
         <v>44</v>
@@ -5262,13 +5238,13 @@
         <v>30495</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="M7" s="7">
         <v>68</v>
@@ -5277,13 +5253,13 @@
         <v>60385</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5298,13 +5274,13 @@
         <v>30422</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="H8" s="7">
         <v>29</v>
@@ -5313,13 +5289,13 @@
         <v>17499</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="M8" s="7">
         <v>61</v>
@@ -5328,13 +5304,13 @@
         <v>47921</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,13 +5378,13 @@
         <v>63725</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="H10" s="7">
         <v>94</v>
@@ -5417,13 +5393,13 @@
         <v>70134</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="M10" s="7">
         <v>156</v>
@@ -5432,13 +5408,13 @@
         <v>133859</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>89</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5453,13 +5429,13 @@
         <v>52725</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="H11" s="7">
         <v>52</v>
@@ -5468,13 +5444,13 @@
         <v>39098</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="M11" s="7">
         <v>101</v>
@@ -5483,13 +5459,13 @@
         <v>91823</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>97</v>
+        <v>381</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5557,13 +5533,13 @@
         <v>38561</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="H13" s="7">
         <v>59</v>
@@ -5572,13 +5548,13 @@
         <v>50358</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="M13" s="7">
         <v>94</v>
@@ -5587,13 +5563,13 @@
         <v>88919</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5608,13 +5584,13 @@
         <v>19476</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H14" s="7">
         <v>29</v>
@@ -5623,13 +5599,13 @@
         <v>29420</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="M14" s="7">
         <v>52</v>
@@ -5638,13 +5614,13 @@
         <v>48897</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5712,13 +5688,13 @@
         <v>84127</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="H16" s="7">
         <v>106</v>
@@ -5727,13 +5703,13 @@
         <v>78374</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="M16" s="7">
         <v>183</v>
@@ -5742,13 +5718,13 @@
         <v>162501</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5763,13 +5739,13 @@
         <v>19879</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="H17" s="7">
         <v>44</v>
@@ -5778,13 +5754,13 @@
         <v>34542</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="M17" s="7">
         <v>68</v>
@@ -5793,13 +5769,13 @@
         <v>54420</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,13 +5843,13 @@
         <v>220248</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="H19" s="7">
         <v>313</v>
@@ -5882,13 +5858,13 @@
         <v>234711</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>428</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="M19" s="7">
         <v>515</v>
@@ -5897,13 +5873,13 @@
         <v>454958</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,13 +5894,13 @@
         <v>132770</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="H20" s="7">
         <v>161</v>
@@ -5933,13 +5909,13 @@
         <v>126500</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>437</v>
+        <v>32</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="M20" s="7">
         <v>297</v>
@@ -5948,13 +5924,13 @@
         <v>259270</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6902-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6902-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{511A2B55-A848-44CF-ADAF-05AF2826C7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{111675A9-186D-4C8E-89B8-B066AEF3371D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{47E31F96-4982-44A0-9EC6-84FB870DC15D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CF5D1752-32FD-4E65-AFF3-1A8073E77213}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="437">
   <si>
     <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -80,22 +80,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>32,28%</t>
+    <t>30,61%</t>
   </si>
   <si>
     <t>28,67%</t>
   </si>
   <si>
-    <t>71,56%</t>
+    <t>71,53%</t>
   </si>
   <si>
     <t>12,92%</t>
   </si>
   <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,7 +104,7 @@
     <t>93,42%</t>
   </si>
   <si>
-    <t>67,72%</t>
+    <t>69,39%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -113,1222 +113,1228 @@
     <t>71,33%</t>
   </si>
   <si>
-    <t>28,44%</t>
+    <t>28,47%</t>
   </si>
   <si>
     <t>87,08%</t>
   </si>
   <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>22,48%</t>
   </si>
   <si>
-    <t>13,07%</t>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2012 (Tasa respuesta: 7,84%)</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
   </si>
   <si>
     <t>35,02%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2012 (Tasa respuesta: 7,84%)</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2015 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
   </si>
   <si>
     <t>30,3%</t>
@@ -1755,7 +1761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F111055-F0D8-412E-8004-B9ED7F21FA07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5569FD3D-D2E3-4B15-8C48-9E4D64787110}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2675,7 +2681,7 @@
         <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="M19" s="7">
         <v>302</v>
@@ -2684,13 +2690,13 @@
         <v>318079</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,13 +2711,13 @@
         <v>267244</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>104</v>
@@ -2720,13 +2726,13 @@
         <v>107103</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>363</v>
@@ -2735,13 +2741,13 @@
         <v>374348</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2797,7 +2803,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2818,7 +2824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BF797AD-E77E-422D-9433-8946B55A0BFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFE366F-4B57-4121-B6AB-12BCAE331B59}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2835,7 +2841,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2942,13 +2948,13 @@
         <v>7993</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -2957,13 +2963,13 @@
         <v>4126</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -2972,13 +2978,13 @@
         <v>12120</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,13 +2999,13 @@
         <v>14144</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -3008,10 +3014,10 @@
         <v>3228</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>137</v>
@@ -3860,7 +3866,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3881,7 +3887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4846FC88-2CEA-4B99-AA60-F48F01AC8520}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BBDC8D9-BADC-4836-A94D-68171F33A31F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4038,10 +4044,10 @@
         <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>160</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,13 +4062,13 @@
         <v>2988</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -4071,13 +4077,13 @@
         <v>1695</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -4086,13 +4092,13 @@
         <v>4684</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,13 +4166,13 @@
         <v>17711</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4175,13 +4181,13 @@
         <v>9235</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M7" s="7">
         <v>25</v>
@@ -4190,13 +4196,13 @@
         <v>26945</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,10 +4217,10 @@
         <v>28913</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>257</v>
@@ -4333,10 +4339,10 @@
         <v>267</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M10" s="7">
         <v>62</v>
@@ -4345,10 +4351,10 @@
         <v>71257</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>271</v>
@@ -4387,7 +4393,7 @@
         <v>276</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="M11" s="7">
         <v>75</v>
@@ -4396,13 +4402,13 @@
         <v>81278</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4488,10 +4494,10 @@
         <v>283</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M13" s="7">
         <v>75</v>
@@ -4500,13 +4506,13 @@
         <v>78698</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,13 +4527,13 @@
         <v>73655</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H14" s="7">
         <v>22</v>
@@ -4536,13 +4542,13 @@
         <v>22329</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
         <v>92</v>
@@ -4551,13 +4557,13 @@
         <v>95984</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4625,13 +4631,13 @@
         <v>51267</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H16" s="7">
         <v>42</v>
@@ -4640,13 +4646,13 @@
         <v>45366</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M16" s="7">
         <v>90</v>
@@ -4655,13 +4661,13 @@
         <v>96633</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,13 +4682,13 @@
         <v>37143</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -4691,13 +4697,13 @@
         <v>20717</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M17" s="7">
         <v>55</v>
@@ -4706,13 +4712,13 @@
         <v>57860</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4780,13 +4786,13 @@
         <v>151995</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>227</v>
+        <v>318</v>
       </c>
       <c r="H19" s="7">
         <v>125</v>
@@ -4795,13 +4801,13 @@
         <v>131034</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="M19" s="7">
         <v>262</v>
@@ -4810,13 +4816,13 @@
         <v>283029</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,13 +4837,13 @@
         <v>198006</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>217</v>
+        <v>326</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H20" s="7">
         <v>82</v>
@@ -4846,13 +4852,13 @@
         <v>85264</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="M20" s="7">
         <v>267</v>
@@ -4861,13 +4867,13 @@
         <v>283270</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,7 +4929,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4944,7 +4950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3ED5F5A-7C99-4BC0-98FF-CEE2DD0D494B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D52B19D-84D1-492F-8B45-D05078D7F18B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4961,7 +4967,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5068,13 +5074,13 @@
         <v>3945</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -5083,13 +5089,13 @@
         <v>5350</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -5098,13 +5104,13 @@
         <v>9294</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,13 +5125,13 @@
         <v>10268</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -5134,13 +5140,13 @@
         <v>5941</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -5149,13 +5155,13 @@
         <v>16209</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5229,13 @@
         <v>29890</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="H7" s="7">
         <v>44</v>
@@ -5238,13 +5244,13 @@
         <v>30495</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="M7" s="7">
         <v>68</v>
@@ -5253,13 +5259,13 @@
         <v>60385</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>355</v>
+        <v>194</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,13 +5280,13 @@
         <v>30422</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="H8" s="7">
         <v>29</v>
@@ -5289,13 +5295,13 @@
         <v>17499</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M8" s="7">
         <v>61</v>
@@ -5304,13 +5310,13 @@
         <v>47921</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>364</v>
+        <v>184</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,13 +5384,13 @@
         <v>63725</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H10" s="7">
         <v>94</v>
@@ -5393,13 +5399,13 @@
         <v>70134</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>58</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M10" s="7">
         <v>156</v>
@@ -5408,13 +5414,13 @@
         <v>133859</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>372</v>
+        <v>197</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,13 +5435,13 @@
         <v>52725</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H11" s="7">
         <v>52</v>
@@ -5444,10 +5450,10 @@
         <v>39098</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>49</v>
@@ -5459,7 +5465,7 @@
         <v>91823</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>380</v>
+        <v>205</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>381</v>
@@ -5858,13 +5864,13 @@
         <v>234711</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>422</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M19" s="7">
         <v>515</v>
@@ -5873,13 +5879,13 @@
         <v>454958</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,13 +5900,13 @@
         <v>132770</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H20" s="7">
         <v>161</v>
@@ -5909,13 +5915,13 @@
         <v>126500</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>32</v>
+        <v>431</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="M20" s="7">
         <v>297</v>
@@ -5924,13 +5930,13 @@
         <v>259270</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5986,7 +5992,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6902-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6902-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{111675A9-186D-4C8E-89B8-B066AEF3371D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88ACE459-55C4-4741-9CCB-825C1B808137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CF5D1752-32FD-4E65-AFF3-1A8073E77213}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{07AB42AF-784D-4269-86B6-A4B968F2152A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="443">
   <si>
     <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>6,58%</t>
@@ -80,13 +80,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>30,61%</t>
+    <t>27,29%</t>
   </si>
   <si>
     <t>28,67%</t>
   </si>
   <si>
-    <t>71,53%</t>
+    <t>71,56%</t>
   </si>
   <si>
     <t>12,92%</t>
@@ -95,7 +95,7 @@
     <t>4,0%</t>
   </si>
   <si>
-    <t>35,07%</t>
+    <t>33,23%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,7 +104,7 @@
     <t>93,42%</t>
   </si>
   <si>
-    <t>69,39%</t>
+    <t>72,71%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -113,13 +113,13 @@
     <t>71,33%</t>
   </si>
   <si>
-    <t>28,47%</t>
+    <t>28,44%</t>
   </si>
   <si>
     <t>87,08%</t>
   </si>
   <si>
-    <t>64,93%</t>
+    <t>66,77%</t>
   </si>
   <si>
     <t>96,0%</t>
@@ -134,55 +134,55 @@
     <t>22,48%</t>
   </si>
   <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
   </si>
   <si>
     <t>43,94%</t>
   </si>
   <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
   </si>
   <si>
     <t>28,69%</t>
   </si>
   <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
   </si>
   <si>
     <t>77,52%</t>
   </si>
   <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
   </si>
   <si>
     <t>56,06%</t>
   </si>
   <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
   </si>
   <si>
     <t>71,31%</t>
   </si>
   <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -191,7 +191,7 @@
     <t>43,58%</t>
   </si>
   <si>
-    <t>35,42%</t>
+    <t>35,3%</t>
   </si>
   <si>
     <t>51,59%</t>
@@ -200,19 +200,19 @@
     <t>45,47%</t>
   </si>
   <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
   </si>
   <si>
     <t>44,08%</t>
   </si>
   <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
   </si>
   <si>
     <t>56,42%</t>
@@ -221,25 +221,25 @@
     <t>48,41%</t>
   </si>
   <si>
-    <t>64,58%</t>
+    <t>64,7%</t>
   </si>
   <si>
     <t>54,53%</t>
   </si>
   <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
   </si>
   <si>
     <t>55,92%</t>
   </si>
   <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -248,55 +248,55 @@
     <t>42,78%</t>
   </si>
   <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
   </si>
   <si>
     <t>65,85%</t>
   </si>
   <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
   </si>
   <si>
     <t>49,64%</t>
   </si>
   <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
   </si>
   <si>
     <t>57,22%</t>
   </si>
   <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
   </si>
   <si>
     <t>34,15%</t>
   </si>
   <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
   </si>
   <si>
     <t>50,36%</t>
   </si>
   <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -305,103 +305,109 @@
     <t>57,62%</t>
   </si>
   <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
   </si>
   <si>
     <t>50,96%</t>
   </si>
   <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
   </si>
   <si>
     <t>55,01%</t>
   </si>
   <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
   </si>
   <si>
     <t>42,38%</t>
   </si>
   <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
   </si>
   <si>
     <t>49,04%</t>
   </si>
   <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
   </si>
   <si>
     <t>44,99%</t>
   </si>
   <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
   </si>
   <si>
     <t>43,42%</t>
   </si>
   <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
   </si>
   <si>
     <t>51,34%</t>
   </si>
   <si>
-    <t>44,47%</t>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
   </si>
   <si>
     <t>45,94%</t>
   </si>
   <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
   </si>
   <si>
     <t>56,58%</t>
   </si>
   <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
   </si>
   <si>
     <t>48,66%</t>
   </si>
   <si>
-    <t>55,53%</t>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
   </si>
   <si>
     <t>54,06%</t>
   </si>
   <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -413,943 +419,955 @@
     <t>36,11%</t>
   </si>
   <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
   </si>
   <si>
     <t>56,11%</t>
   </si>
   <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
+    <t>16,29%</t>
   </si>
   <si>
     <t>41,1%</t>
   </si>
   <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
   </si>
   <si>
     <t>63,89%</t>
   </si>
   <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
   </si>
   <si>
     <t>43,89%</t>
   </si>
   <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
+    <t>83,71%</t>
   </si>
   <si>
     <t>58,9%</t>
   </si>
   <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
   </si>
   <si>
     <t>36,5%</t>
   </si>
   <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
   </si>
   <si>
     <t>53,56%</t>
   </si>
   <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
   </si>
   <si>
     <t>42,28%</t>
   </si>
   <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
   </si>
   <si>
     <t>63,5%</t>
   </si>
   <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
   </si>
   <si>
     <t>46,44%</t>
   </si>
   <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
   </si>
   <si>
     <t>57,72%</t>
   </si>
   <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
   </si>
   <si>
     <t>50,18%</t>
   </si>
   <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
   </si>
   <si>
     <t>57,36%</t>
   </si>
   <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
   </si>
   <si>
     <t>53,12%</t>
   </si>
   <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
   </si>
   <si>
     <t>49,82%</t>
   </si>
   <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
   </si>
   <si>
     <t>42,64%</t>
   </si>
   <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
   </si>
   <si>
     <t>46,88%</t>
   </si>
   <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
   </si>
   <si>
     <t>51,93%</t>
   </si>
   <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
   </si>
   <si>
     <t>54,67%</t>
   </si>
   <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
   </si>
   <si>
     <t>53,03%</t>
   </si>
   <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
     <t>44,25%</t>
   </si>
   <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
   </si>
   <si>
     <t>59,31%</t>
   </si>
   <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
   </si>
   <si>
     <t>40,69%</t>
   </si>
   <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2016 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
+    <t>47,3%</t>
   </si>
   <si>
     <t>66,44%</t>
   </si>
   <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
   </si>
   <si>
     <t>63,12%</t>
   </si>
   <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
   </si>
   <si>
     <t>64,52%</t>
   </si>
   <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
   </si>
   <si>
     <t>33,56%</t>
   </si>
   <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
   </si>
   <si>
     <t>36,88%</t>
   </si>
   <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
   </si>
   <si>
     <t>35,48%</t>
   </si>
   <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
   </si>
   <si>
     <t>80,89%</t>
   </si>
   <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
   </si>
   <si>
     <t>69,41%</t>
   </si>
   <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
   </si>
   <si>
     <t>74,91%</t>
   </si>
   <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
   </si>
   <si>
     <t>19,11%</t>
   </si>
   <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
   </si>
   <si>
     <t>30,59%</t>
   </si>
   <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
   </si>
   <si>
     <t>25,09%</t>
   </si>
   <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
   </si>
   <si>
     <t>62,39%</t>
   </si>
   <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
   </si>
   <si>
     <t>64,98%</t>
   </si>
   <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
   </si>
   <si>
     <t>63,7%</t>
   </si>
   <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
   </si>
   <si>
     <t>37,61%</t>
   </si>
   <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
   </si>
   <si>
     <t>35,02%</t>
   </si>
   <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
   </si>
   <si>
     <t>36,3%</t>
   </si>
   <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
   </si>
 </sst>
 </file>
@@ -1761,7 +1779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5569FD3D-D2E3-4B15-8C48-9E4D64787110}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28943702-F6EA-49CB-BE91-F49256747E7D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2681,7 +2699,7 @@
         <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>302</v>
@@ -2690,13 +2708,13 @@
         <v>318079</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,13 +2729,13 @@
         <v>267244</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>104</v>
@@ -2726,13 +2744,13 @@
         <v>107103</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>363</v>
@@ -2741,13 +2759,13 @@
         <v>374348</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2803,7 +2821,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2824,7 +2842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFE366F-4B57-4121-B6AB-12BCAE331B59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420F7554-4405-4F0D-83E7-51031C87713D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2841,7 +2859,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2948,13 +2966,13 @@
         <v>7993</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -2963,13 +2981,13 @@
         <v>4126</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -2978,13 +2996,13 @@
         <v>12120</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,13 +3017,13 @@
         <v>14144</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -3014,10 +3032,10 @@
         <v>3228</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>137</v>
@@ -3866,7 +3884,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3887,7 +3905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BBDC8D9-BADC-4836-A94D-68171F33A31F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03AE2144-810D-4AF5-8167-E390E1F62187}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4172,7 +4190,7 @@
         <v>249</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4181,13 +4199,13 @@
         <v>9235</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M7" s="7">
         <v>25</v>
@@ -4196,13 +4214,13 @@
         <v>26945</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,13 +4235,13 @@
         <v>28913</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H8" s="7">
         <v>14</v>
@@ -4232,13 +4250,13 @@
         <v>14550</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -4247,13 +4265,13 @@
         <v>43464</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,13 +4339,13 @@
         <v>41677</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -4336,13 +4354,13 @@
         <v>29581</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="M10" s="7">
         <v>62</v>
@@ -4351,13 +4369,13 @@
         <v>71257</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,13 +4390,13 @@
         <v>55307</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -4387,13 +4405,13 @@
         <v>25971</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="M11" s="7">
         <v>75</v>
@@ -4402,13 +4420,13 @@
         <v>81278</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,13 +4494,13 @@
         <v>36280</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
@@ -4491,13 +4509,13 @@
         <v>42418</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="M13" s="7">
         <v>75</v>
@@ -4506,13 +4524,13 @@
         <v>78698</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,13 +4545,13 @@
         <v>73655</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="H14" s="7">
         <v>22</v>
@@ -4542,13 +4560,13 @@
         <v>22329</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="M14" s="7">
         <v>92</v>
@@ -4557,13 +4575,13 @@
         <v>95984</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,13 +4649,13 @@
         <v>51267</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H16" s="7">
         <v>42</v>
@@ -4646,13 +4664,13 @@
         <v>45366</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M16" s="7">
         <v>90</v>
@@ -4661,13 +4679,13 @@
         <v>96633</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,13 +4700,13 @@
         <v>37143</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -4697,13 +4715,13 @@
         <v>20717</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="M17" s="7">
         <v>55</v>
@@ -4712,13 +4730,13 @@
         <v>57860</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,13 +4804,13 @@
         <v>151995</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="H19" s="7">
         <v>125</v>
@@ -4801,13 +4819,13 @@
         <v>131034</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M19" s="7">
         <v>262</v>
@@ -4816,13 +4834,13 @@
         <v>283029</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,13 +4855,13 @@
         <v>198006</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="H20" s="7">
         <v>82</v>
@@ -4852,13 +4870,13 @@
         <v>85264</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M20" s="7">
         <v>267</v>
@@ -4867,13 +4885,13 @@
         <v>283270</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4929,7 +4947,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4950,7 +4968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D52B19D-84D1-492F-8B45-D05078D7F18B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32284AA5-85C9-43F5-B3EE-97A2FA391569}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4967,7 +4985,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5074,13 +5092,13 @@
         <v>3945</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -5089,13 +5107,13 @@
         <v>5350</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -5104,13 +5122,13 @@
         <v>9294</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5125,13 +5143,13 @@
         <v>10268</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -5140,13 +5158,13 @@
         <v>5941</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -5155,13 +5173,13 @@
         <v>16209</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5247,13 @@
         <v>29890</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="H7" s="7">
         <v>44</v>
@@ -5244,13 +5262,13 @@
         <v>30495</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="M7" s="7">
         <v>68</v>
@@ -5259,13 +5277,13 @@
         <v>60385</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>194</v>
+        <v>363</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,13 +5298,13 @@
         <v>30422</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="H8" s="7">
         <v>29</v>
@@ -5295,13 +5313,13 @@
         <v>17499</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="M8" s="7">
         <v>61</v>
@@ -5310,13 +5328,13 @@
         <v>47921</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>184</v>
+        <v>372</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,13 +5402,13 @@
         <v>63725</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="H10" s="7">
         <v>94</v>
@@ -5399,13 +5417,13 @@
         <v>70134</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="M10" s="7">
         <v>156</v>
@@ -5414,13 +5432,13 @@
         <v>133859</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>197</v>
+        <v>380</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>375</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,13 +5453,13 @@
         <v>52725</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="H11" s="7">
         <v>52</v>
@@ -5450,13 +5468,13 @@
         <v>39098</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="M11" s="7">
         <v>101</v>
@@ -5465,13 +5483,13 @@
         <v>91823</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>205</v>
+        <v>387</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>381</v>
+        <v>97</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5539,13 +5557,13 @@
         <v>38561</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="H13" s="7">
         <v>59</v>
@@ -5554,13 +5572,13 @@
         <v>50358</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="M13" s="7">
         <v>94</v>
@@ -5569,13 +5587,13 @@
         <v>88919</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5590,13 +5608,13 @@
         <v>19476</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="H14" s="7">
         <v>29</v>
@@ -5605,13 +5623,13 @@
         <v>29420</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="M14" s="7">
         <v>52</v>
@@ -5620,13 +5638,13 @@
         <v>48897</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,13 +5712,13 @@
         <v>84127</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="H16" s="7">
         <v>106</v>
@@ -5709,13 +5727,13 @@
         <v>78374</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="M16" s="7">
         <v>183</v>
@@ -5724,13 +5742,13 @@
         <v>162501</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5745,13 +5763,13 @@
         <v>19879</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="H17" s="7">
         <v>44</v>
@@ -5760,13 +5778,13 @@
         <v>34542</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="M17" s="7">
         <v>68</v>
@@ -5775,13 +5793,13 @@
         <v>54420</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5849,13 +5867,13 @@
         <v>220248</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="H19" s="7">
         <v>313</v>
@@ -5864,13 +5882,13 @@
         <v>234711</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="M19" s="7">
         <v>515</v>
@@ -5879,13 +5897,13 @@
         <v>454958</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5900,13 +5918,13 @@
         <v>132770</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="H20" s="7">
         <v>161</v>
@@ -5915,13 +5933,13 @@
         <v>126500</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="M20" s="7">
         <v>297</v>
@@ -5930,13 +5948,13 @@
         <v>259270</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5992,7 +6010,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6902-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6902-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88ACE459-55C4-4741-9CCB-825C1B808137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2181B5AC-4CF0-4AFB-AB55-BEB9A342AC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{07AB42AF-784D-4269-86B6-A4B968F2152A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2BA01E05-E744-4B79-A084-7CCD1536C062}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="376">
   <si>
     <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -68,123 +68,72 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -242,7 +191,7 @@
     <t>62,88%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>42,78%</t>
@@ -416,106 +365,52 @@
     <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2012 (Tasa respuesta: 7,84%)</t>
   </si>
   <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
   </si>
   <si>
     <t>50,18%</t>
@@ -737,637 +632,541 @@
     <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2016 (Tasa respuesta: 8,05%)</t>
   </si>
   <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
   </si>
   <si>
     <t>87,45%</t>
   </si>
   <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
   </si>
   <si>
     <t>12,55%</t>
   </si>
   <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
   </si>
   <si>
     <t>55,75%</t>
   </si>
   <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
   </si>
   <si>
     <t>44,25%</t>
   </si>
   <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
   </si>
 </sst>
 </file>
@@ -1779,8 +1578,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28943702-F6EA-49CB-BE91-F49256747E7D}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEA51AF-96C3-44AB-8183-57517033114D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1897,10 +1696,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>992</v>
+        <v>15435</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1912,85 +1711,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I4" s="7">
-        <v>1736</v>
+        <v>13242</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="N4" s="7">
-        <v>2728</v>
+        <v>28677</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="D5" s="7">
-        <v>14079</v>
+        <v>63896</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
         <v>20</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="7">
-        <v>5</v>
-      </c>
       <c r="I5" s="7">
-        <v>4320</v>
+        <v>18999</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="N5" s="7">
-        <v>18398</v>
+        <v>82895</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1999,153 +1798,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="D6" s="7">
-        <v>15071</v>
+        <v>79331</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="I6" s="7">
-        <v>6056</v>
+        <v>32241</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="N6" s="7">
-        <v>21126</v>
+        <v>111572</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="D7" s="7">
-        <v>14443</v>
+        <v>63613</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I7" s="7">
-        <v>11506</v>
+        <v>24009</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="N7" s="7">
-        <v>25949</v>
+        <v>87621</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>78</v>
+      </c>
+      <c r="D8" s="7">
+        <v>82368</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="7">
+        <v>27</v>
+      </c>
+      <c r="I8" s="7">
+        <v>28788</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="7">
+        <v>105</v>
+      </c>
+      <c r="N8" s="7">
+        <v>111156</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="D8" s="7">
-        <v>49818</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="7">
-        <v>15</v>
-      </c>
-      <c r="I8" s="7">
-        <v>14680</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M8" s="7">
-        <v>64</v>
-      </c>
-      <c r="N8" s="7">
-        <v>64497</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2154,153 +1953,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="D9" s="7">
-        <v>64261</v>
+        <v>145981</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I9" s="7">
-        <v>26186</v>
+        <v>52797</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="N9" s="7">
-        <v>90446</v>
+        <v>198777</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>42</v>
+      </c>
+      <c r="D10" s="7">
+        <v>47039</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="7">
+        <v>32</v>
+      </c>
+      <c r="I10" s="7">
+        <v>30642</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="7">
+        <v>74</v>
+      </c>
+      <c r="N10" s="7">
+        <v>77681</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="7">
-        <v>63613</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="7">
-        <v>23</v>
-      </c>
-      <c r="I10" s="7">
-        <v>24009</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M10" s="7">
-        <v>81</v>
-      </c>
-      <c r="N10" s="7">
-        <v>87621</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D11" s="7">
-        <v>82368</v>
+        <v>62905</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="I11" s="7">
-        <v>28788</v>
+        <v>15891</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="N11" s="7">
-        <v>111156</v>
+        <v>78796</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2309,153 +2108,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="D12" s="7">
-        <v>145981</v>
+        <v>109944</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I12" s="7">
-        <v>52797</v>
+        <v>46533</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="N12" s="7">
-        <v>198777</v>
+        <v>156477</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="D13" s="7">
-        <v>47039</v>
+        <v>78974</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I13" s="7">
-        <v>30642</v>
+        <v>45125</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="N13" s="7">
-        <v>77681</v>
+        <v>124100</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D14" s="7">
-        <v>62905</v>
+        <v>58075</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="I14" s="7">
-        <v>15891</v>
+        <v>43426</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="N14" s="7">
-        <v>78796</v>
+        <v>101500</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2464,153 +2263,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="D15" s="7">
-        <v>109944</v>
+        <v>137049</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="I15" s="7">
-        <v>46533</v>
+        <v>88551</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>147</v>
+        <v>223</v>
       </c>
       <c r="N15" s="7">
-        <v>156477</v>
+        <v>225600</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="D16" s="7">
-        <v>78974</v>
+        <v>205061</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="I16" s="7">
-        <v>45125</v>
+        <v>113018</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>120</v>
+        <v>302</v>
       </c>
       <c r="N16" s="7">
-        <v>124100</v>
+        <v>318079</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>61</v>
+        <v>259</v>
       </c>
       <c r="D17" s="7">
-        <v>58075</v>
+        <v>267244</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="I17" s="7">
-        <v>43426</v>
+        <v>107103</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
+        <v>363</v>
+      </c>
+      <c r="N17" s="7">
+        <v>374348</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="N17" s="7">
-        <v>101500</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2619,217 +2418,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>138</v>
+        <v>450</v>
       </c>
       <c r="D18" s="7">
-        <v>137049</v>
+        <v>472305</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>85</v>
+        <v>215</v>
       </c>
       <c r="I18" s="7">
-        <v>88551</v>
+        <v>220121</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>223</v>
+        <v>665</v>
       </c>
       <c r="N18" s="7">
-        <v>225600</v>
+        <v>692427</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>191</v>
-      </c>
-      <c r="D19" s="7">
-        <v>205061</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7">
-        <v>111</v>
-      </c>
-      <c r="I19" s="7">
-        <v>113018</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="7">
-        <v>302</v>
-      </c>
-      <c r="N19" s="7">
-        <v>318079</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>259</v>
-      </c>
-      <c r="D20" s="7">
-        <v>267244</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>104</v>
-      </c>
-      <c r="I20" s="7">
-        <v>107103</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>363</v>
-      </c>
-      <c r="N20" s="7">
-        <v>374348</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>450</v>
-      </c>
-      <c r="D21" s="7">
-        <v>472305</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7">
-        <v>215</v>
-      </c>
-      <c r="I21" s="7">
-        <v>220121</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="7">
-        <v>665</v>
-      </c>
-      <c r="N21" s="7">
-        <v>692427</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2842,8 +2485,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420F7554-4405-4F0D-83E7-51031C87713D}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0DABAF-68C7-4591-B4A0-2559702D1F9B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2859,7 +2502,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2960,100 +2603,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>7993</v>
+        <v>27866</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="I4" s="7">
-        <v>4126</v>
+        <v>19068</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="N4" s="7">
-        <v>12120</v>
+        <v>46935</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D5" s="7">
-        <v>14144</v>
+        <v>48714</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I5" s="7">
-        <v>3228</v>
+        <v>16186</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="M5" s="7">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="N5" s="7">
-        <v>17371</v>
+        <v>64899</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,153 +2705,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="D6" s="7">
-        <v>22137</v>
+        <v>76580</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="I6" s="7">
-        <v>7354</v>
+        <v>35254</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="N6" s="7">
-        <v>29491</v>
+        <v>111834</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D7" s="7">
-        <v>19873</v>
+        <v>45947</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="I7" s="7">
-        <v>14942</v>
+        <v>36424</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="N7" s="7">
-        <v>34815</v>
+        <v>82371</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D8" s="7">
-        <v>34571</v>
+        <v>45618</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="H8" s="7">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I8" s="7">
-        <v>12958</v>
+        <v>27074</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="M8" s="7">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="N8" s="7">
-        <v>47529</v>
+        <v>72692</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,153 +2860,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="D9" s="7">
-        <v>54444</v>
+        <v>91565</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="I9" s="7">
-        <v>27900</v>
+        <v>63498</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="N9" s="7">
-        <v>82344</v>
+        <v>155063</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D10" s="7">
-        <v>45947</v>
+        <v>41313</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I10" s="7">
-        <v>36424</v>
+        <v>28966</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N10" s="7">
-        <v>82371</v>
+        <v>70278</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D11" s="7">
-        <v>45618</v>
+        <v>38244</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I11" s="7">
-        <v>27074</v>
+        <v>24013</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="N11" s="7">
-        <v>72692</v>
+        <v>62258</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,153 +3015,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D12" s="7">
-        <v>91565</v>
+        <v>79557</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I12" s="7">
-        <v>63498</v>
+        <v>52979</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="N12" s="7">
-        <v>155063</v>
+        <v>132536</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>37</v>
+      </c>
+      <c r="D13" s="7">
+        <v>37245</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H13" s="7">
         <v>38</v>
       </c>
-      <c r="D13" s="7">
-        <v>41313</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H13" s="7">
-        <v>27</v>
-      </c>
       <c r="I13" s="7">
-        <v>28966</v>
+        <v>39728</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="N13" s="7">
-        <v>70278</v>
+        <v>76974</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D14" s="7">
-        <v>38244</v>
+        <v>40157</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14" s="7">
-        <v>24013</v>
+        <v>24368</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="N14" s="7">
-        <v>62258</v>
+        <v>64525</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,153 +3170,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D15" s="7">
-        <v>79557</v>
+        <v>77402</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I15" s="7">
-        <v>52979</v>
+        <v>64096</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="N15" s="7">
-        <v>132536</v>
+        <v>141499</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>37</v>
+        <v>145</v>
       </c>
       <c r="D16" s="7">
-        <v>37245</v>
+        <v>152372</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="I16" s="7">
-        <v>39728</v>
+        <v>124186</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
-        <v>75</v>
+        <v>260</v>
       </c>
       <c r="N16" s="7">
-        <v>76974</v>
+        <v>276558</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="D17" s="7">
-        <v>40157</v>
+        <v>172733</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="I17" s="7">
-        <v>24368</v>
+        <v>91642</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
-        <v>61</v>
+        <v>250</v>
       </c>
       <c r="N17" s="7">
-        <v>64525</v>
+        <v>264375</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,217 +3325,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="D18" s="7">
-        <v>77402</v>
+        <v>325105</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>59</v>
+        <v>198</v>
       </c>
       <c r="I18" s="7">
-        <v>64096</v>
+        <v>215828</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>136</v>
+        <v>510</v>
       </c>
       <c r="N18" s="7">
-        <v>141499</v>
+        <v>540933</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>145</v>
-      </c>
-      <c r="D19" s="7">
-        <v>152372</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H19" s="7">
-        <v>115</v>
-      </c>
-      <c r="I19" s="7">
-        <v>124186</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M19" s="7">
-        <v>260</v>
-      </c>
-      <c r="N19" s="7">
-        <v>276557</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>167</v>
-      </c>
-      <c r="D20" s="7">
-        <v>172733</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H20" s="7">
-        <v>83</v>
-      </c>
-      <c r="I20" s="7">
-        <v>91642</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M20" s="7">
-        <v>250</v>
-      </c>
-      <c r="N20" s="7">
-        <v>264375</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>312</v>
-      </c>
-      <c r="D21" s="7">
-        <v>325105</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7">
-        <v>198</v>
-      </c>
-      <c r="I21" s="7">
-        <v>215828</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="7">
-        <v>510</v>
-      </c>
-      <c r="N21" s="7">
-        <v>540932</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3905,8 +3392,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03AE2144-810D-4AF5-8167-E390E1F62187}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6E6CBE-4A2C-4E24-B472-75540EC61A68}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3922,7 +3409,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4023,100 +3510,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7">
-        <v>5061</v>
+        <v>22771</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>58</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I4" s="7">
-        <v>4435</v>
+        <v>13669</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>22</v>
+        <v>201</v>
       </c>
       <c r="M4" s="7">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="N4" s="7">
-        <v>9495</v>
+        <v>36440</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D5" s="7">
-        <v>2988</v>
+        <v>31902</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>68</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I5" s="7">
-        <v>1695</v>
+        <v>16246</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="N5" s="7">
-        <v>4684</v>
+        <v>48148</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,153 +3612,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D6" s="7">
-        <v>8049</v>
+        <v>54673</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="I6" s="7">
-        <v>6130</v>
+        <v>29915</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="N6" s="7">
-        <v>14179</v>
+        <v>84588</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D7" s="7">
-        <v>17711</v>
+        <v>41677</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="H7" s="7">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="I7" s="7">
-        <v>9235</v>
+        <v>29581</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="M7" s="7">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="N7" s="7">
-        <v>26945</v>
+        <v>71257</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D8" s="7">
-        <v>28913</v>
+        <v>55307</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="H8" s="7">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I8" s="7">
-        <v>14550</v>
+        <v>25971</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="M8" s="7">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="N8" s="7">
-        <v>43464</v>
+        <v>81278</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4280,153 +3767,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="D9" s="7">
-        <v>46624</v>
+        <v>96984</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I9" s="7">
-        <v>23785</v>
+        <v>55552</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="N9" s="7">
-        <v>70409</v>
+        <v>152535</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="7">
-        <v>41677</v>
+        <v>36280</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="H10" s="7">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="I10" s="7">
-        <v>29581</v>
+        <v>42418</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="M10" s="7">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="N10" s="7">
-        <v>71257</v>
+        <v>78698</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D11" s="7">
-        <v>55307</v>
+        <v>73655</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="H11" s="7">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I11" s="7">
-        <v>25971</v>
+        <v>22329</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="M11" s="7">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="N11" s="7">
-        <v>81278</v>
+        <v>95984</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4435,153 +3922,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D12" s="7">
-        <v>96984</v>
+        <v>109935</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="I12" s="7">
-        <v>55552</v>
+        <v>64747</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="N12" s="7">
-        <v>152535</v>
+        <v>174682</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D13" s="7">
-        <v>36280</v>
+        <v>51267</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
       </c>
       <c r="I13" s="7">
-        <v>42418</v>
+        <v>45366</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="M13" s="7">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="N13" s="7">
-        <v>78698</v>
+        <v>96633</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>36</v>
+      </c>
+      <c r="D14" s="7">
+        <v>37143</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H14" s="7">
         <v>19</v>
       </c>
-      <c r="C14" s="7">
-        <v>70</v>
-      </c>
-      <c r="D14" s="7">
-        <v>73655</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="H14" s="7">
-        <v>22</v>
-      </c>
       <c r="I14" s="7">
-        <v>22329</v>
+        <v>20717</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="M14" s="7">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="N14" s="7">
-        <v>95984</v>
+        <v>57860</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,153 +4077,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D15" s="7">
-        <v>109935</v>
+        <v>88410</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I15" s="7">
-        <v>64747</v>
+        <v>66083</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="N15" s="7">
-        <v>174682</v>
+        <v>154493</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>48</v>
+        <v>137</v>
       </c>
       <c r="D16" s="7">
-        <v>51267</v>
+        <v>151995</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="H16" s="7">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="I16" s="7">
-        <v>45366</v>
+        <v>131034</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="M16" s="7">
-        <v>90</v>
+        <v>262</v>
       </c>
       <c r="N16" s="7">
-        <v>96633</v>
+        <v>283029</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="D17" s="7">
-        <v>37143</v>
+        <v>198006</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="H17" s="7">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="I17" s="7">
-        <v>20717</v>
+        <v>85264</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
       <c r="M17" s="7">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="N17" s="7">
-        <v>57860</v>
+        <v>283270</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>318</v>
+        <v>283</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4745,217 +4232,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>84</v>
+        <v>322</v>
       </c>
       <c r="D18" s="7">
-        <v>88410</v>
+        <v>350001</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>61</v>
+        <v>207</v>
       </c>
       <c r="I18" s="7">
-        <v>66083</v>
+        <v>216298</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>145</v>
+        <v>529</v>
       </c>
       <c r="N18" s="7">
-        <v>154493</v>
+        <v>566299</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>137</v>
-      </c>
-      <c r="D19" s="7">
-        <v>151995</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="H19" s="7">
-        <v>125</v>
-      </c>
-      <c r="I19" s="7">
-        <v>131034</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="M19" s="7">
-        <v>262</v>
-      </c>
-      <c r="N19" s="7">
-        <v>283029</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>185</v>
-      </c>
-      <c r="D20" s="7">
-        <v>198006</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="H20" s="7">
-        <v>82</v>
-      </c>
-      <c r="I20" s="7">
-        <v>85264</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="M20" s="7">
-        <v>267</v>
-      </c>
-      <c r="N20" s="7">
-        <v>283270</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>322</v>
-      </c>
-      <c r="D21" s="7">
-        <v>350001</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7">
-        <v>207</v>
-      </c>
-      <c r="I21" s="7">
-        <v>216298</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="7">
-        <v>529</v>
-      </c>
-      <c r="N21" s="7">
-        <v>566299</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4968,8 +4299,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32284AA5-85C9-43F5-B3EE-97A2FA391569}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C444327-6C7E-45A8-8843-687C8F94D904}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4985,7 +4316,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>338</v>
+        <v>285</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5086,100 +4417,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>3945</v>
+        <v>31546</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>339</v>
+        <v>286</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>340</v>
+        <v>287</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>341</v>
+        <v>288</v>
       </c>
       <c r="H4" s="7">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="I4" s="7">
-        <v>5350</v>
+        <v>32570</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>342</v>
+        <v>289</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>343</v>
+        <v>290</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>344</v>
+        <v>291</v>
       </c>
       <c r="M4" s="7">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="N4" s="7">
-        <v>9294</v>
+        <v>64116</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>345</v>
+        <v>292</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>346</v>
+        <v>293</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>347</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D5" s="7">
-        <v>10268</v>
+        <v>39669</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>348</v>
+        <v>295</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>349</v>
+        <v>296</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>350</v>
+        <v>297</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="I5" s="7">
-        <v>5941</v>
+        <v>22111</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>351</v>
+        <v>298</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>352</v>
+        <v>299</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>353</v>
+        <v>300</v>
       </c>
       <c r="M5" s="7">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="N5" s="7">
-        <v>16209</v>
+        <v>61781</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>354</v>
+        <v>301</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>355</v>
+        <v>302</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>356</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5188,153 +4519,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="D6" s="7">
-        <v>14213</v>
+        <v>71215</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I6" s="7">
-        <v>11291</v>
+        <v>54681</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="N6" s="7">
-        <v>25503</v>
+        <v>125897</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="D7" s="7">
-        <v>29890</v>
+        <v>60420</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>357</v>
+        <v>304</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>358</v>
+        <v>305</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>359</v>
+        <v>306</v>
       </c>
       <c r="H7" s="7">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="I7" s="7">
-        <v>30495</v>
+        <v>63153</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>360</v>
+        <v>307</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>361</v>
+        <v>308</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>362</v>
+        <v>309</v>
       </c>
       <c r="M7" s="7">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="N7" s="7">
-        <v>60385</v>
+        <v>123572</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>363</v>
+        <v>310</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>364</v>
+        <v>311</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>365</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D8" s="7">
-        <v>30422</v>
+        <v>51563</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>366</v>
+        <v>313</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>367</v>
+        <v>314</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="H8" s="7">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="I8" s="7">
-        <v>17499</v>
+        <v>35577</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>369</v>
+        <v>316</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>370</v>
+        <v>317</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>371</v>
+        <v>318</v>
       </c>
       <c r="M8" s="7">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="N8" s="7">
-        <v>47921</v>
+        <v>87140</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>372</v>
+        <v>319</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>373</v>
+        <v>320</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>374</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5343,153 +4674,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="D9" s="7">
-        <v>60312</v>
+        <v>111983</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="I9" s="7">
-        <v>47994</v>
+        <v>98730</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>129</v>
+        <v>257</v>
       </c>
       <c r="N9" s="7">
-        <v>108306</v>
+        <v>210712</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="D10" s="7">
-        <v>63725</v>
+        <v>36524</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>375</v>
+        <v>322</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>376</v>
+        <v>323</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>377</v>
+        <v>324</v>
       </c>
       <c r="H10" s="7">
+        <v>59</v>
+      </c>
+      <c r="I10" s="7">
+        <v>45729</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="M10" s="7">
         <v>94</v>
       </c>
-      <c r="I10" s="7">
-        <v>70134</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="M10" s="7">
-        <v>156</v>
-      </c>
       <c r="N10" s="7">
-        <v>133859</v>
+        <v>82252</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>381</v>
+        <v>329</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>89</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D11" s="7">
-        <v>52725</v>
+        <v>18753</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>382</v>
+        <v>331</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>383</v>
+        <v>332</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>384</v>
+        <v>333</v>
       </c>
       <c r="H11" s="7">
+        <v>29</v>
+      </c>
+      <c r="I11" s="7">
+        <v>51179</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="M11" s="7">
         <v>52</v>
       </c>
-      <c r="I11" s="7">
-        <v>39098</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M11" s="7">
-        <v>101</v>
-      </c>
       <c r="N11" s="7">
-        <v>91823</v>
+        <v>69932</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>387</v>
+        <v>337</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>97</v>
+        <v>338</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>388</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5498,153 +4829,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="D12" s="7">
-        <v>116450</v>
+        <v>55277</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
+        <v>88</v>
+      </c>
+      <c r="I12" s="7">
+        <v>96908</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
         <v>146</v>
       </c>
-      <c r="I12" s="7">
-        <v>109232</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M12" s="7">
-        <v>257</v>
-      </c>
       <c r="N12" s="7">
-        <v>225682</v>
+        <v>152184</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="D13" s="7">
-        <v>38561</v>
+        <v>81476</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>389</v>
+        <v>340</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>390</v>
+        <v>341</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>391</v>
+        <v>342</v>
       </c>
       <c r="H13" s="7">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I13" s="7">
-        <v>50358</v>
+        <v>72871</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>392</v>
+        <v>343</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>393</v>
+        <v>344</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>394</v>
+        <v>345</v>
       </c>
       <c r="M13" s="7">
-        <v>94</v>
+        <v>183</v>
       </c>
       <c r="N13" s="7">
-        <v>88919</v>
+        <v>154347</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>395</v>
+        <v>346</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>396</v>
+        <v>347</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>397</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" s="7">
-        <v>19476</v>
+        <v>19554</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>398</v>
+        <v>349</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>399</v>
+        <v>350</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="H14" s="7">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I14" s="7">
-        <v>29420</v>
+        <v>31025</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>401</v>
+        <v>352</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>402</v>
+        <v>353</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>403</v>
+        <v>354</v>
       </c>
       <c r="M14" s="7">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="N14" s="7">
-        <v>48897</v>
+        <v>50579</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>404</v>
+        <v>355</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>405</v>
+        <v>356</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>406</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5653,153 +4984,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="D15" s="7">
-        <v>58037</v>
+        <v>101030</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="I15" s="7">
-        <v>79778</v>
+        <v>103896</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>146</v>
+        <v>251</v>
       </c>
       <c r="N15" s="7">
-        <v>137816</v>
+        <v>204926</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="D16" s="7">
-        <v>84127</v>
+        <v>209966</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>407</v>
+        <v>358</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>408</v>
+        <v>359</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>409</v>
+        <v>360</v>
       </c>
       <c r="H16" s="7">
-        <v>106</v>
+        <v>313</v>
       </c>
       <c r="I16" s="7">
-        <v>78374</v>
+        <v>214322</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>410</v>
+        <v>361</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>411</v>
+        <v>362</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>412</v>
+        <v>363</v>
       </c>
       <c r="M16" s="7">
-        <v>183</v>
+        <v>515</v>
       </c>
       <c r="N16" s="7">
-        <v>162501</v>
+        <v>424288</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>413</v>
+        <v>364</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>414</v>
+        <v>365</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>415</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="D17" s="7">
-        <v>19879</v>
+        <v>129539</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>416</v>
+        <v>367</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>417</v>
+        <v>368</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>418</v>
+        <v>369</v>
       </c>
       <c r="H17" s="7">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="I17" s="7">
-        <v>34542</v>
+        <v>139893</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>419</v>
+        <v>370</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>420</v>
+        <v>371</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>421</v>
+        <v>372</v>
       </c>
       <c r="M17" s="7">
-        <v>68</v>
+        <v>297</v>
       </c>
       <c r="N17" s="7">
-        <v>54420</v>
+        <v>269432</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>422</v>
+        <v>373</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>424</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5808,217 +5139,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>101</v>
+        <v>338</v>
       </c>
       <c r="D18" s="7">
-        <v>104006</v>
+        <v>339505</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>150</v>
+        <v>474</v>
       </c>
       <c r="I18" s="7">
-        <v>112916</v>
+        <v>354215</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>251</v>
+        <v>812</v>
       </c>
       <c r="N18" s="7">
-        <v>216921</v>
+        <v>693720</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>202</v>
-      </c>
-      <c r="D19" s="7">
-        <v>220248</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="H19" s="7">
-        <v>313</v>
-      </c>
-      <c r="I19" s="7">
-        <v>234711</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="M19" s="7">
-        <v>515</v>
-      </c>
-      <c r="N19" s="7">
-        <v>454958</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>136</v>
-      </c>
-      <c r="D20" s="7">
-        <v>132770</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="H20" s="7">
-        <v>161</v>
-      </c>
-      <c r="I20" s="7">
-        <v>126500</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="M20" s="7">
-        <v>297</v>
-      </c>
-      <c r="N20" s="7">
-        <v>259270</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>338</v>
-      </c>
-      <c r="D21" s="7">
-        <v>353018</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7">
-        <v>474</v>
-      </c>
-      <c r="I21" s="7">
-        <v>361211</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="7">
-        <v>812</v>
-      </c>
-      <c r="N21" s="7">
-        <v>714228</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
